--- a/trans_data.xlsx
+++ b/trans_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\material\pytest\背单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C644B-FB51-4027-86D4-5523943A34CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA64EF7-E5DC-4E12-A691-90CCDBFDF58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit 1 -w" sheetId="1" r:id="rId1"/>
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D11"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3908,7 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F94FA1E-B1DD-4CAB-B922-1BB1210C86C1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
